--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.06466283014424</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H2">
-        <v>1.06466283014424</v>
+        <v>10.548919</v>
       </c>
       <c r="I2">
-        <v>0.01668921307633541</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J2">
-        <v>0.01668921307633541</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>100.532598529955</v>
+        <v>110.864399</v>
       </c>
       <c r="N2">
-        <v>100.532598529955</v>
+        <v>332.593197</v>
       </c>
       <c r="O2">
-        <v>0.4602190568165552</v>
+        <v>0.4698467856635863</v>
       </c>
       <c r="P2">
-        <v>0.4602190568165552</v>
+        <v>0.4940325573104491</v>
       </c>
       <c r="Q2">
-        <v>107.0333208726565</v>
+        <v>389.8331883448936</v>
       </c>
       <c r="R2">
-        <v>107.0333208726565</v>
+        <v>3508.498695104043</v>
       </c>
       <c r="S2">
-        <v>0.0076806939010016</v>
+        <v>0.02104131757848191</v>
       </c>
       <c r="T2">
-        <v>0.0076806939010016</v>
+        <v>0.02267056023832006</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.06466283014424</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H3">
-        <v>1.06466283014424</v>
+        <v>10.548919</v>
       </c>
       <c r="I3">
-        <v>0.01668921307633541</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J3">
-        <v>0.01668921307633541</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.7817514737238</v>
+        <v>34.721522</v>
       </c>
       <c r="N3">
-        <v>31.7817514737238</v>
+        <v>104.164566</v>
       </c>
       <c r="O3">
-        <v>0.1454907950365687</v>
+        <v>0.1471508947164138</v>
       </c>
       <c r="P3">
-        <v>0.1454907950365687</v>
+        <v>0.1547256149142253</v>
       </c>
       <c r="Q3">
-        <v>33.83684947095566</v>
+        <v>122.0915077115727</v>
       </c>
       <c r="R3">
-        <v>33.83684947095566</v>
+        <v>1098.823569404154</v>
       </c>
       <c r="S3">
-        <v>0.002428126879010737</v>
+        <v>0.006589911439561823</v>
       </c>
       <c r="T3">
-        <v>0.002428126879010737</v>
+        <v>0.007100172491506089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.06466283014424</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H4">
-        <v>1.06466283014424</v>
+        <v>10.548919</v>
       </c>
       <c r="I4">
-        <v>0.01668921307633541</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J4">
-        <v>0.01668921307633541</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.8539172027845</v>
+        <v>30.88149066666667</v>
       </c>
       <c r="N4">
-        <v>27.8539172027845</v>
+        <v>92.64447200000001</v>
       </c>
       <c r="O4">
-        <v>0.1275099190825386</v>
+        <v>0.1308767219874919</v>
       </c>
       <c r="P4">
-        <v>0.1275099190825386</v>
+        <v>0.1376137149998179</v>
       </c>
       <c r="Q4">
-        <v>29.65503031971988</v>
+        <v>108.5887812139742</v>
       </c>
       <c r="R4">
-        <v>29.65503031971988</v>
+        <v>977.2990309257681</v>
       </c>
       <c r="S4">
-        <v>0.002128040208914774</v>
+        <v>0.005861099309384778</v>
       </c>
       <c r="T4">
-        <v>0.002128040208914774</v>
+        <v>0.006314927972574724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.06466283014424</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H5">
-        <v>1.06466283014424</v>
+        <v>10.548919</v>
       </c>
       <c r="I5">
-        <v>0.01668921307633541</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J5">
-        <v>0.01668921307633541</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.5286121058883</v>
+        <v>24.836561</v>
       </c>
       <c r="N5">
-        <v>24.5286121058883</v>
+        <v>74.509683</v>
       </c>
       <c r="O5">
-        <v>0.1122873067388931</v>
+        <v>0.1052581212548456</v>
       </c>
       <c r="P5">
-        <v>0.1122873067388931</v>
+        <v>0.1106763745287336</v>
       </c>
       <c r="Q5">
-        <v>26.1147015841653</v>
+        <v>87.33295674251966</v>
       </c>
       <c r="R5">
-        <v>26.1147015841653</v>
+        <v>785.996610682677</v>
       </c>
       <c r="S5">
-        <v>0.00187398678793322</v>
+        <v>0.004713812299278673</v>
       </c>
       <c r="T5">
-        <v>0.00187398678793322</v>
+        <v>0.005078805796468627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.06466283014424</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H6">
-        <v>1.06466283014424</v>
+        <v>10.548919</v>
       </c>
       <c r="I6">
-        <v>0.01668921307633541</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J6">
-        <v>0.01668921307633541</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.7482220821081</v>
+        <v>34.654647</v>
       </c>
       <c r="N6">
-        <v>33.7482220821081</v>
+        <v>69.30929399999999</v>
       </c>
       <c r="O6">
-        <v>0.1544929223254445</v>
+        <v>0.1468674763776624</v>
       </c>
       <c r="P6">
-        <v>0.1544929223254445</v>
+        <v>0.1029517382467741</v>
       </c>
       <c r="Q6">
-        <v>35.93047763427354</v>
+        <v>121.856354725531</v>
       </c>
       <c r="R6">
-        <v>35.93047763427354</v>
+        <v>731.1381283531859</v>
       </c>
       <c r="S6">
-        <v>0.002578365299475078</v>
+        <v>0.0065772190141687</v>
       </c>
       <c r="T6">
-        <v>0.002578365299475078</v>
+        <v>0.004724331522338488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.3367302100933</v>
+        <v>17.624015</v>
       </c>
       <c r="H7">
-        <v>15.3367302100933</v>
+        <v>52.872045</v>
       </c>
       <c r="I7">
-        <v>0.2404122235918016</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J7">
-        <v>0.2404122235918016</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>100.532598529955</v>
+        <v>110.864399</v>
       </c>
       <c r="N7">
-        <v>100.532598529955</v>
+        <v>332.593197</v>
       </c>
       <c r="O7">
-        <v>0.4602190568165552</v>
+        <v>0.4698467856635863</v>
       </c>
       <c r="P7">
-        <v>0.4602190568165552</v>
+        <v>0.4940325573104491</v>
       </c>
       <c r="Q7">
-        <v>1541.841340973542</v>
+        <v>1953.875830941985</v>
       </c>
       <c r="R7">
-        <v>1541.841340973542</v>
+        <v>17584.88247847787</v>
       </c>
       <c r="S7">
-        <v>0.1106422867885897</v>
+        <v>0.1054608050236035</v>
       </c>
       <c r="T7">
-        <v>0.1106422867885897</v>
+        <v>0.1136267025176389</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.3367302100933</v>
+        <v>17.624015</v>
       </c>
       <c r="H8">
-        <v>15.3367302100933</v>
+        <v>52.872045</v>
       </c>
       <c r="I8">
-        <v>0.2404122235918016</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J8">
-        <v>0.2404122235918016</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7817514737238</v>
+        <v>34.721522</v>
       </c>
       <c r="N8">
-        <v>31.7817514737238</v>
+        <v>104.164566</v>
       </c>
       <c r="O8">
-        <v>0.1454907950365687</v>
+        <v>0.1471508947164138</v>
       </c>
       <c r="P8">
-        <v>0.1454907950365687</v>
+        <v>0.1547256149142253</v>
       </c>
       <c r="Q8">
-        <v>487.4281479567371</v>
+        <v>611.93262455083</v>
       </c>
       <c r="R8">
-        <v>487.4281479567371</v>
+        <v>5507.39362095747</v>
       </c>
       <c r="S8">
-        <v>0.03497776554688054</v>
+        <v>0.03302917523383462</v>
       </c>
       <c r="T8">
-        <v>0.03497776554688054</v>
+        <v>0.0355866453689399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.3367302100933</v>
+        <v>17.624015</v>
       </c>
       <c r="H9">
-        <v>15.3367302100933</v>
+        <v>52.872045</v>
       </c>
       <c r="I9">
-        <v>0.2404122235918016</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J9">
-        <v>0.2404122235918016</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.8539172027845</v>
+        <v>30.88149066666667</v>
       </c>
       <c r="N9">
-        <v>27.8539172027845</v>
+        <v>92.64447200000001</v>
       </c>
       <c r="O9">
-        <v>0.1275099190825386</v>
+        <v>0.1308767219874919</v>
       </c>
       <c r="P9">
-        <v>0.1275099190825386</v>
+        <v>0.1376137149998179</v>
       </c>
       <c r="Q9">
-        <v>427.1880134333825</v>
+        <v>544.2558547316934</v>
       </c>
       <c r="R9">
-        <v>427.1880134333825</v>
+        <v>4898.30269258524</v>
       </c>
       <c r="S9">
-        <v>0.03065494317664381</v>
+        <v>0.02937630921568939</v>
       </c>
       <c r="T9">
-        <v>0.03065494317664381</v>
+        <v>0.03165093560181186</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.3367302100933</v>
+        <v>17.624015</v>
       </c>
       <c r="H10">
-        <v>15.3367302100933</v>
+        <v>52.872045</v>
       </c>
       <c r="I10">
-        <v>0.2404122235918016</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J10">
-        <v>0.2404122235918016</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.5286121058883</v>
+        <v>24.836561</v>
       </c>
       <c r="N10">
-        <v>24.5286121058883</v>
+        <v>74.509683</v>
       </c>
       <c r="O10">
-        <v>0.1122873067388931</v>
+        <v>0.1052581212548456</v>
       </c>
       <c r="P10">
-        <v>0.1122873067388931</v>
+        <v>0.1106763745287336</v>
       </c>
       <c r="Q10">
-        <v>376.1887062960373</v>
+        <v>437.719923612415</v>
       </c>
       <c r="R10">
-        <v>376.1887062960373</v>
+        <v>3939.479312511735</v>
       </c>
       <c r="S10">
-        <v>0.02699524109423198</v>
+        <v>0.02362601286530074</v>
       </c>
       <c r="T10">
-        <v>0.02699524109423198</v>
+        <v>0.0254553901321216</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.3367302100933</v>
+        <v>17.624015</v>
       </c>
       <c r="H11">
-        <v>15.3367302100933</v>
+        <v>52.872045</v>
       </c>
       <c r="I11">
-        <v>0.2404122235918016</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J11">
-        <v>0.2404122235918016</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>33.7482220821081</v>
+        <v>34.654647</v>
       </c>
       <c r="N11">
-        <v>33.7482220821081</v>
+        <v>69.30929399999999</v>
       </c>
       <c r="O11">
-        <v>0.1544929223254445</v>
+        <v>0.1468674763776624</v>
       </c>
       <c r="P11">
-        <v>0.1544929223254445</v>
+        <v>0.1029517382467741</v>
       </c>
       <c r="Q11">
-        <v>517.5873771436051</v>
+        <v>610.754018547705</v>
       </c>
       <c r="R11">
-        <v>517.5873771436051</v>
+        <v>3664.52411128623</v>
       </c>
       <c r="S11">
-        <v>0.0371419869854556</v>
+        <v>0.03296555975943916</v>
       </c>
       <c r="T11">
-        <v>0.0371419869854556</v>
+        <v>0.02367873607181921</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.3540273013094</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H12">
-        <v>18.3540273013094</v>
+        <v>80.252405</v>
       </c>
       <c r="I12">
-        <v>0.2877101217095469</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J12">
-        <v>0.2877101217095469</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>100.532598529955</v>
+        <v>110.864399</v>
       </c>
       <c r="N12">
-        <v>100.532598529955</v>
+        <v>332.593197</v>
       </c>
       <c r="O12">
-        <v>0.4602190568165552</v>
+        <v>0.4698467856635863</v>
       </c>
       <c r="P12">
-        <v>0.4602190568165552</v>
+        <v>0.4940325573104491</v>
       </c>
       <c r="Q12">
-        <v>1845.178058090371</v>
+        <v>2965.711549543198</v>
       </c>
       <c r="R12">
-        <v>1845.178058090371</v>
+        <v>26691.40394588879</v>
       </c>
       <c r="S12">
-        <v>0.1324096808497439</v>
+        <v>0.1600748228365342</v>
       </c>
       <c r="T12">
-        <v>0.1324096808497439</v>
+        <v>0.1724695186134767</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.3540273013094</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H13">
-        <v>18.3540273013094</v>
+        <v>80.252405</v>
       </c>
       <c r="I13">
-        <v>0.2877101217095469</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J13">
-        <v>0.2877101217095469</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.7817514737238</v>
+        <v>34.721522</v>
       </c>
       <c r="N13">
-        <v>31.7817514737238</v>
+        <v>104.164566</v>
       </c>
       <c r="O13">
-        <v>0.1454907950365687</v>
+        <v>0.1471508947164138</v>
       </c>
       <c r="P13">
-        <v>0.1454907950365687</v>
+        <v>0.1547256149142253</v>
       </c>
       <c r="Q13">
-        <v>583.3231342321569</v>
+        <v>928.8285485868032</v>
       </c>
       <c r="R13">
-        <v>583.3231342321569</v>
+        <v>8359.456937281229</v>
       </c>
       <c r="S13">
-        <v>0.04185917434758991</v>
+        <v>0.05013369064278988</v>
       </c>
       <c r="T13">
-        <v>0.04185917434758991</v>
+        <v>0.05401557433119031</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.3540273013094</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H14">
-        <v>18.3540273013094</v>
+        <v>80.252405</v>
       </c>
       <c r="I14">
-        <v>0.2877101217095469</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J14">
-        <v>0.2877101217095469</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.8539172027845</v>
+        <v>30.88149066666667</v>
       </c>
       <c r="N14">
-        <v>27.8539172027845</v>
+        <v>92.64447200000001</v>
       </c>
       <c r="O14">
-        <v>0.1275099190825386</v>
+        <v>0.1308767219874919</v>
       </c>
       <c r="P14">
-        <v>0.1275099190825386</v>
+        <v>0.1376137149998179</v>
       </c>
       <c r="Q14">
-        <v>511.2315567883183</v>
+        <v>826.1046319950177</v>
       </c>
       <c r="R14">
-        <v>511.2315567883183</v>
+        <v>7434.94168795516</v>
       </c>
       <c r="S14">
-        <v>0.03668589433841166</v>
+        <v>0.04458914847312483</v>
       </c>
       <c r="T14">
-        <v>0.03668589433841166</v>
+        <v>0.04804171471985856</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.3540273013094</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H15">
-        <v>18.3540273013094</v>
+        <v>80.252405</v>
       </c>
       <c r="I15">
-        <v>0.2877101217095469</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J15">
-        <v>0.2877101217095469</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.5286121058883</v>
+        <v>24.836561</v>
       </c>
       <c r="N15">
-        <v>24.5286121058883</v>
+        <v>74.509683</v>
       </c>
       <c r="O15">
-        <v>0.1122873067388931</v>
+        <v>0.1052581212548456</v>
       </c>
       <c r="P15">
-        <v>0.1122873067388931</v>
+        <v>0.1106763745287336</v>
       </c>
       <c r="Q15">
-        <v>450.1988162547021</v>
+        <v>664.3979173930683</v>
       </c>
       <c r="R15">
-        <v>450.1988162547021</v>
+        <v>5979.581256537615</v>
       </c>
       <c r="S15">
-        <v>0.03230619468828416</v>
+        <v>0.03586099900242795</v>
       </c>
       <c r="T15">
-        <v>0.03230619468828416</v>
+        <v>0.03863773906070829</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.3540273013094</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H16">
-        <v>18.3540273013094</v>
+        <v>80.252405</v>
       </c>
       <c r="I16">
-        <v>0.2877101217095469</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J16">
-        <v>0.2877101217095469</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.7482220821081</v>
+        <v>34.654647</v>
       </c>
       <c r="N16">
-        <v>33.7482220821081</v>
+        <v>69.30929399999999</v>
       </c>
       <c r="O16">
-        <v>0.1544929223254445</v>
+        <v>0.1468674763776624</v>
       </c>
       <c r="P16">
-        <v>0.1544929223254445</v>
+        <v>0.1029517382467741</v>
       </c>
       <c r="Q16">
-        <v>619.4157894656648</v>
+        <v>927.0395887253449</v>
       </c>
       <c r="R16">
-        <v>619.4157894656648</v>
+        <v>5562.237532352069</v>
       </c>
       <c r="S16">
-        <v>0.0444491774855172</v>
+        <v>0.05003713120735567</v>
       </c>
       <c r="T16">
-        <v>0.0444491774855172</v>
+        <v>0.03594102549132996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.7832541470708</v>
+        <v>24.95263266666666</v>
       </c>
       <c r="H17">
-        <v>24.7832541470708</v>
+        <v>74.85789799999999</v>
       </c>
       <c r="I17">
-        <v>0.3884920159459325</v>
+        <v>0.3177944743052822</v>
       </c>
       <c r="J17">
-        <v>0.3884920159459325</v>
+        <v>0.3256389551966594</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>100.532598529955</v>
+        <v>110.864399</v>
       </c>
       <c r="N17">
-        <v>100.532598529955</v>
+        <v>332.593197</v>
       </c>
       <c r="O17">
-        <v>0.4602190568165552</v>
+        <v>0.4698467856635863</v>
       </c>
       <c r="P17">
-        <v>0.4602190568165552</v>
+        <v>0.4940325573104491</v>
       </c>
       <c r="Q17">
-        <v>2491.524939433311</v>
+        <v>2766.358624057767</v>
       </c>
       <c r="R17">
-        <v>2491.524939433311</v>
+        <v>24897.22761651991</v>
       </c>
       <c r="S17">
-        <v>0.1787914291593992</v>
+        <v>0.149314712253986</v>
       </c>
       <c r="T17">
-        <v>0.1787914291593992</v>
+        <v>0.1608762457957084</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>24.7832541470708</v>
+        <v>24.95263266666666</v>
       </c>
       <c r="H18">
-        <v>24.7832541470708</v>
+        <v>74.85789799999999</v>
       </c>
       <c r="I18">
-        <v>0.3884920159459325</v>
+        <v>0.3177944743052822</v>
       </c>
       <c r="J18">
-        <v>0.3884920159459325</v>
+        <v>0.3256389551966594</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>31.7817514737238</v>
+        <v>34.721522</v>
       </c>
       <c r="N18">
-        <v>31.7817514737238</v>
+        <v>104.164566</v>
       </c>
       <c r="O18">
-        <v>0.1454907950365687</v>
+        <v>0.1471508947164138</v>
       </c>
       <c r="P18">
-        <v>0.1454907950365687</v>
+        <v>0.1547256149142253</v>
       </c>
       <c r="Q18">
-        <v>787.6552240123389</v>
+        <v>866.3933840935852</v>
       </c>
       <c r="R18">
-        <v>787.6552240123389</v>
+        <v>7797.540456842267</v>
       </c>
       <c r="S18">
-        <v>0.05652201226533304</v>
+        <v>0.04676374122995466</v>
       </c>
       <c r="T18">
-        <v>0.05652201226533304</v>
+        <v>0.05038468758282898</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>24.7832541470708</v>
+        <v>24.95263266666666</v>
       </c>
       <c r="H19">
-        <v>24.7832541470708</v>
+        <v>74.85789799999999</v>
       </c>
       <c r="I19">
-        <v>0.3884920159459325</v>
+        <v>0.3177944743052822</v>
       </c>
       <c r="J19">
-        <v>0.3884920159459325</v>
+        <v>0.3256389551966594</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.8539172027845</v>
+        <v>30.88149066666667</v>
       </c>
       <c r="N19">
-        <v>27.8539172027845</v>
+        <v>92.64447200000001</v>
       </c>
       <c r="O19">
-        <v>0.1275099190825386</v>
+        <v>0.1308767219874919</v>
       </c>
       <c r="P19">
-        <v>0.1275099190825386</v>
+        <v>0.1376137149998179</v>
       </c>
       <c r="Q19">
-        <v>690.3107090280756</v>
+        <v>770.5744928044284</v>
       </c>
       <c r="R19">
-        <v>690.3107090280756</v>
+        <v>6935.170435239856</v>
       </c>
       <c r="S19">
-        <v>0.04953658551747816</v>
+        <v>0.04159189906281355</v>
       </c>
       <c r="T19">
-        <v>0.04953658551747816</v>
+        <v>0.04481238637327157</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.7832541470708</v>
+        <v>24.95263266666666</v>
       </c>
       <c r="H20">
-        <v>24.7832541470708</v>
+        <v>74.85789799999999</v>
       </c>
       <c r="I20">
-        <v>0.3884920159459325</v>
+        <v>0.3177944743052822</v>
       </c>
       <c r="J20">
-        <v>0.3884920159459325</v>
+        <v>0.3256389551966594</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.5286121058883</v>
+        <v>24.836561</v>
       </c>
       <c r="N20">
-        <v>24.5286121058883</v>
+        <v>74.509683</v>
       </c>
       <c r="O20">
-        <v>0.1122873067388931</v>
+        <v>0.1052581212548456</v>
       </c>
       <c r="P20">
-        <v>0.1122873067388931</v>
+        <v>0.1106763745287336</v>
       </c>
       <c r="Q20">
-        <v>607.8988276951472</v>
+        <v>619.7375833362593</v>
       </c>
       <c r="R20">
-        <v>607.8988276951472</v>
+        <v>5577.638250026333</v>
       </c>
       <c r="S20">
-        <v>0.04362272216013187</v>
+        <v>0.03345044931054531</v>
       </c>
       <c r="T20">
-        <v>0.04362272216013187</v>
+        <v>0.036040538966491</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.7832541470708</v>
+        <v>24.95263266666666</v>
       </c>
       <c r="H21">
-        <v>24.7832541470708</v>
+        <v>74.85789799999999</v>
       </c>
       <c r="I21">
-        <v>0.3884920159459325</v>
+        <v>0.3177944743052822</v>
       </c>
       <c r="J21">
-        <v>0.3884920159459325</v>
+        <v>0.3256389551966594</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>33.7482220821081</v>
+        <v>34.654647</v>
       </c>
       <c r="N21">
-        <v>33.7482220821081</v>
+        <v>69.30929399999999</v>
       </c>
       <c r="O21">
-        <v>0.1544929223254445</v>
+        <v>0.1468674763776624</v>
       </c>
       <c r="P21">
-        <v>0.1544929223254445</v>
+        <v>0.1029517382467741</v>
       </c>
       <c r="Q21">
-        <v>836.3907648726719</v>
+        <v>864.7246767840018</v>
       </c>
       <c r="R21">
-        <v>836.3907648726719</v>
+        <v>5188.348060704011</v>
       </c>
       <c r="S21">
-        <v>0.06001926684359028</v>
+        <v>0.04667367244798268</v>
       </c>
       <c r="T21">
-        <v>0.06001926684359028</v>
+        <v>0.03352509647835947</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.25479649617582</v>
+        <v>5.6743895</v>
       </c>
       <c r="H22">
-        <v>4.25479649617582</v>
+        <v>11.348779</v>
       </c>
       <c r="I22">
-        <v>0.06669642567638365</v>
+        <v>0.07226851179374205</v>
       </c>
       <c r="J22">
-        <v>0.06669642567638365</v>
+        <v>0.04936826487323742</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>100.532598529955</v>
+        <v>110.864399</v>
       </c>
       <c r="N22">
-        <v>100.532598529955</v>
+        <v>332.593197</v>
       </c>
       <c r="O22">
-        <v>0.4602190568165552</v>
+        <v>0.4698467856635863</v>
       </c>
       <c r="P22">
-        <v>0.4602190568165552</v>
+        <v>0.4940325573104491</v>
       </c>
       <c r="Q22">
-        <v>427.7457479767029</v>
+        <v>629.0877816094105</v>
       </c>
       <c r="R22">
-        <v>427.7457479767029</v>
+        <v>3774.526689656464</v>
       </c>
       <c r="S22">
-        <v>0.03069496611782075</v>
+        <v>0.03395512797098068</v>
       </c>
       <c r="T22">
-        <v>0.03069496611782075</v>
+        <v>0.0243895301453051</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.25479649617582</v>
+        <v>5.6743895</v>
       </c>
       <c r="H23">
-        <v>4.25479649617582</v>
+        <v>11.348779</v>
       </c>
       <c r="I23">
-        <v>0.06669642567638365</v>
+        <v>0.07226851179374205</v>
       </c>
       <c r="J23">
-        <v>0.06669642567638365</v>
+        <v>0.04936826487323742</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.7817514737238</v>
+        <v>34.721522</v>
       </c>
       <c r="N23">
-        <v>31.7817514737238</v>
+        <v>104.164566</v>
       </c>
       <c r="O23">
-        <v>0.1454907950365687</v>
+        <v>0.1471508947164138</v>
       </c>
       <c r="P23">
-        <v>0.1454907950365687</v>
+        <v>0.1547256149142253</v>
       </c>
       <c r="Q23">
-        <v>135.2248848127307</v>
+        <v>197.023439860819</v>
       </c>
       <c r="R23">
-        <v>135.2248848127307</v>
+        <v>1182.140639164914</v>
       </c>
       <c r="S23">
-        <v>0.009703715997754471</v>
+        <v>0.01063437617027285</v>
       </c>
       <c r="T23">
-        <v>0.009703715997754471</v>
+        <v>0.007638535139760008</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.25479649617582</v>
+        <v>5.6743895</v>
       </c>
       <c r="H24">
-        <v>4.25479649617582</v>
+        <v>11.348779</v>
       </c>
       <c r="I24">
-        <v>0.06669642567638365</v>
+        <v>0.07226851179374205</v>
       </c>
       <c r="J24">
-        <v>0.06669642567638365</v>
+        <v>0.04936826487323742</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>27.8539172027845</v>
+        <v>30.88149066666667</v>
       </c>
       <c r="N24">
-        <v>27.8539172027845</v>
+        <v>92.64447200000001</v>
       </c>
       <c r="O24">
-        <v>0.1275099190825386</v>
+        <v>0.1308767219874919</v>
       </c>
       <c r="P24">
-        <v>0.1275099190825386</v>
+        <v>0.1376137149998179</v>
       </c>
       <c r="Q24">
-        <v>118.5127493191789</v>
+        <v>175.2336063832813</v>
       </c>
       <c r="R24">
-        <v>118.5127493191789</v>
+        <v>1051.401638299688</v>
       </c>
       <c r="S24">
-        <v>0.008504455841090231</v>
+        <v>0.009458265926479357</v>
       </c>
       <c r="T24">
-        <v>0.008504455841090231</v>
+        <v>0.006793750332301216</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.25479649617582</v>
+        <v>5.6743895</v>
       </c>
       <c r="H25">
-        <v>4.25479649617582</v>
+        <v>11.348779</v>
       </c>
       <c r="I25">
-        <v>0.06669642567638365</v>
+        <v>0.07226851179374205</v>
       </c>
       <c r="J25">
-        <v>0.06669642567638365</v>
+        <v>0.04936826487323742</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.5286121058883</v>
+        <v>24.836561</v>
       </c>
       <c r="N25">
-        <v>24.5286121058883</v>
+        <v>74.509683</v>
       </c>
       <c r="O25">
-        <v>0.1122873067388931</v>
+        <v>0.1052581212548456</v>
       </c>
       <c r="P25">
-        <v>0.1122873067388931</v>
+        <v>0.1106763745287336</v>
       </c>
       <c r="Q25">
-        <v>104.3642528441894</v>
+        <v>140.9323209545095</v>
       </c>
       <c r="R25">
-        <v>104.3642528441894</v>
+        <v>845.593925727057</v>
       </c>
       <c r="S25">
-        <v>0.007489162008311876</v>
+        <v>0.007606847777292941</v>
       </c>
       <c r="T25">
-        <v>0.007489162008311876</v>
+        <v>0.00546390057294415</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.25479649617582</v>
+        <v>5.6743895</v>
       </c>
       <c r="H26">
-        <v>4.25479649617582</v>
+        <v>11.348779</v>
       </c>
       <c r="I26">
-        <v>0.06669642567638365</v>
+        <v>0.07226851179374205</v>
       </c>
       <c r="J26">
-        <v>0.06669642567638365</v>
+        <v>0.04936826487323742</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>33.7482220821081</v>
+        <v>34.654647</v>
       </c>
       <c r="N26">
-        <v>33.7482220821081</v>
+        <v>69.30929399999999</v>
       </c>
       <c r="O26">
-        <v>0.1544929223254445</v>
+        <v>0.1468674763776624</v>
       </c>
       <c r="P26">
-        <v>0.1544929223254445</v>
+        <v>0.1029517382467741</v>
       </c>
       <c r="Q26">
-        <v>143.591817067117</v>
+        <v>196.6439650630065</v>
       </c>
       <c r="R26">
-        <v>143.591817067117</v>
+        <v>786.5758602520259</v>
       </c>
       <c r="S26">
-        <v>0.01030412571140632</v>
+        <v>0.01061389394871623</v>
       </c>
       <c r="T26">
-        <v>0.01030412571140632</v>
+        <v>0.005082548682926949</v>
       </c>
     </row>
   </sheetData>
